--- a/40_数据库/学习笔记_SqlServer.xlsx
+++ b/40_数据库/学习笔记_SqlServer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="问题" sheetId="8" r:id="rId9"/>
     <sheet name="参考" sheetId="7" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <r>
       <rPr>
@@ -149,12 +149,218 @@
     <t>知识点内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Windows 10下的安装：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL Server 复制：必选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库引擎：必选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端工具连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integration Services</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户端工具</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SDK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户端连接</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SDK</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>用户密码：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#自行设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL Server 2019 Developer：开发版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL Server Management Studio (SSMS)</t>
+  </si>
+  <si>
+    <t>监视和管理 SQL Server 和数据库实例的工具。 使用 SSMS 部署、监视和升级应用程序使用的数据层组件，以及生成查询和脚本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要另外下载安装：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/zh-cn/sql/ssms/download-sql-server-management-studio-ssms?redirectedfrom=MSDN&amp;view=sql-server-ver15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SQL Server Management Studio (SSMS) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是一种集成环境，用于管理从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SQL Server </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Azure SQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据库的任何</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SQL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基础结构。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SSMS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF171717"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提供用于配置、</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +407,94 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF171717"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF171717"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -242,10 +536,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,9 +559,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -307,6 +616,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4410075" y="628650"/>
+          <a:ext cx="9058275" cy="8943975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,7 +945,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -592,7 +961,7 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -601,16 +970,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="A1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="B54" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="17"/>
+    </row>
+    <row r="55" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B55" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="17"/>
+    </row>
+    <row r="56" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B56" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="17"/>
+    </row>
+    <row r="57" spans="2:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="17"/>
+      <c r="C57" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C57" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -622,7 +1108,7 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -637,7 +1123,7 @@
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -655,18 +1141,18 @@
       <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
-    <col min="6" max="6" width="45.21875" customWidth="1"/>
-    <col min="7" max="7" width="63.6640625" customWidth="1"/>
-    <col min="8" max="8" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="45.25" customWidth="1"/>
+    <col min="7" max="7" width="63.625" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +1178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -704,7 +1190,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -716,7 +1202,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -728,7 +1214,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -740,7 +1226,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -752,7 +1238,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -764,7 +1250,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -776,7 +1262,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -788,7 +1274,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -800,7 +1286,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -812,7 +1298,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -824,7 +1310,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -836,7 +1322,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -848,7 +1334,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -860,7 +1346,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -872,7 +1358,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -884,7 +1370,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -896,7 +1382,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -908,7 +1394,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -920,7 +1406,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -932,7 +1418,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -944,7 +1430,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -956,7 +1442,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -968,7 +1454,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -980,7 +1466,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -992,7 +1478,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1004,7 +1490,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1016,7 +1502,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1028,7 +1514,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1040,7 +1526,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1066,7 +1552,7 @@
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1081,7 +1567,7 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1096,7 +1582,7 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1107,11 +1593,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
